--- a/docs/practice/anova_two_factor_with_replication.xlsx
+++ b/docs/practice/anova_two_factor_with_replication.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7232b599e1879579/Research/_CUREs/CURE_resources/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\CURES\Statistics-with-Excel\docs\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{200E28E0-F6B8-4A6C-871E-C4A67BCEA84A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1BFC1D-8F93-4768-B82E-D0FE6A8C1EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="2200" windowWidth="16960" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="3000" windowWidth="16950" windowHeight="15710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="practice" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>Students</t>
   </si>
@@ -216,17 +217,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -292,10 +292,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -618,7 +614,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -749,248 +745,230 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>145</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>157</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>146</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>140</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>131</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>719</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>72.5</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>78.5</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>73</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>70</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>65.5</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>71.900000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>612.5</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>684.5</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>968</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>1250</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>1624.5</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>590.98888888888905</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>2</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>67</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>80</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>62</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>75</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>76</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
         <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>33.5</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>40</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>31</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>37.5</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>38</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>924.5</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>1250</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>392</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>544.5</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>512</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20">
         <v>414.44444444444446</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>4</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>4</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>4</v>
       </c>
       <c r="E23">
@@ -1001,16 +979,16 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>212</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>237</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>208</v>
       </c>
       <c r="E24">
@@ -1021,16 +999,16 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>53</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>59.25</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>52</v>
       </c>
       <c r="E25">
@@ -1041,16 +1019,16 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>1019.3333333333334</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>1138.9166666666667</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>1041.3333333333333</v>
       </c>
       <c r="E26">
@@ -1059,12 +1037,6 @@
       <c r="F26">
         <v>964.25</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
@@ -1072,147 +1044,247 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>6444.0499999999993</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>6444.0499999999993</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>7.3541226818830232</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>2.1864122420477885E-2</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31">
         <v>4.9646027437307128</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>150.70000000000073</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>4</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>37.675000000000182</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>4.2995720399429595E-2</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>0.9959017281392748</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32">
         <v>3.4780496907652281</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>135.70000000000073</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>4</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>33.925000000000182</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33">
         <v>3.8716119828816183E-2</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33">
         <v>0.99665089306057109</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33">
         <v>3.4780496907652281</v>
       </c>
-      <c r="H33" s="6"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>8762.5</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>10</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>876.25</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>15492.95</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>19</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216158B2-05A2-40CE-B08A-1906AD94DEFF}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>55</v>
+      </c>
+      <c r="C2">
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <v>51</v>
+      </c>
+      <c r="E2">
+        <v>45</v>
+      </c>
+      <c r="F2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>90</v>
+      </c>
+      <c r="C3">
+        <v>97</v>
+      </c>
+      <c r="D3">
+        <v>95</v>
+      </c>
+      <c r="E3">
+        <v>95</v>
+      </c>
+      <c r="F3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="D5">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>54</v>
+      </c>
+      <c r="F5">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>